--- a/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stu.xlsx
+++ b/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiangEDU\src\main\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A07EC-9F3D-4071-86EB-943A2BB3AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82C1D6-E718-497A-80AB-1CA8B77847F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试数据" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>学籍状态</t>
   </si>
   <si>
-    <t>班型</t>
-  </si>
-  <si>
     <t>是否提前入学</t>
   </si>
   <si>
@@ -190,6 +187,10 @@
   </si>
   <si>
     <t>证件类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班型(1就业 0升学)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -615,13 +616,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="29" width="20.625" style="3"/>
+    <col min="1" max="25" width="20.625" style="3"/>
+    <col min="26" max="26" width="26.5" style="3" customWidth="1"/>
+    <col min="27" max="29" width="20.625" style="3"/>
     <col min="30" max="30" width="25.625" style="3" customWidth="1"/>
     <col min="31" max="48" width="20.625" style="3"/>
     <col min="49" max="50" width="23.625" style="3" customWidth="1"/>
@@ -639,10 +642,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -669,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -704,98 +707,98 @@
       <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="20.100000000000001" customHeight="1">
